--- a/CarPark Projesi Süreçler ve Maliyet .xlsx
+++ b/CarPark Projesi Süreçler ve Maliyet .xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="59">
   <si>
     <t>Adım(Hafta)</t>
   </si>
@@ -53,52 +53,52 @@
     <t>Analiz</t>
   </si>
   <si>
-    <t>Frontend</t>
+    <t>Frontend,Tasarım</t>
   </si>
   <si>
-    <t>Mevcut WEB sitesi</t>
+    <t>Arayüz analizi</t>
   </si>
   <si>
-    <t>ER Model Oluşumu</t>
+    <t>Giriş  Modülü</t>
   </si>
   <si>
-    <t>Alıcının isteklerini dinlemek ve ER Modelini oluşturmak.</t>
+    <t>Sitenin giriş arayüzü tasarımı yapılmaya başlanacak.</t>
+  </si>
+  <si>
+    <t>Kaydol Modülü</t>
+  </si>
+  <si>
+    <t>Siteye giriş çin kaydol arayüzü tasarımı yapılacak.</t>
+  </si>
+  <si>
+    <t>Tasarım</t>
+  </si>
+  <si>
+    <t>Backend,DB</t>
+  </si>
+  <si>
+    <t>Mevcut Web Sitesi</t>
   </si>
   <si>
     <t>İçerik analizi</t>
   </si>
   <si>
-    <t>İstekler doğrultusunda içerik analizi edilecek.</t>
+    <t>Talep edilen sisteme yönelik backend ve db kısımlarında eklemeler yapılacak.</t>
   </si>
   <si>
-    <t>Tasarım</t>
+    <t>TRY               4.000,00</t>
   </si>
   <si>
     <t>Backend</t>
   </si>
   <si>
-    <t>Arayüz analizi</t>
+    <t xml:space="preserve">Giriş  Modülü,Kaydol Modülü </t>
   </si>
   <si>
-    <t>Talep edilen sisteme yönelik arayüz tasarım  çalışması yapılacak.</t>
-  </si>
-  <si>
-    <t>TRY               4.000,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giriş ve Kaydol Arayüzü </t>
-  </si>
-  <si>
-    <t>Giriş  Modülü</t>
-  </si>
-  <si>
-    <t>Kullanıcın programa giriş yapabilmesi için oluşturulacak modül.Kullanıcın programa kayıt  yapabilmesi için oluşturulacak modül.</t>
+    <t>Giriş ve kaydol modülünde gerekli olan backend kısımları eklenecek.</t>
   </si>
   <si>
     <t>DB</t>
-  </si>
-  <si>
-    <t>Kaydol ve Giriş modülü</t>
   </si>
   <si>
     <t>Talep edilen sisteme yönelik Db kısımları entegre edilecek.</t>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Adım</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Mevcut WEB sitesi</t>
   </si>
   <si>
     <t>Mevcut muhasebe modülü sayfa tasarımı ve içerik yönünden analiz edilecek.</t>
@@ -196,11 +202,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_([$TRY]\ * #,##0.00_);_([$TRY]\ * \(#,##0.00\);_([$TRY]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_([$TRY]\ * #,##0.00_);_([$TRY]\ * \(#,##0.00\);_([$TRY]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -244,21 +250,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -268,14 +259,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,38 +278,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,8 +307,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,8 +346,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,7 +385,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,6 +419,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,7 +443,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +473,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,151 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,36 +663,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -711,6 +687,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -718,6 +709,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,148 +739,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -899,17 +905,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1177,7 +1183,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1354,10 +1360,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
@@ -1369,7 +1375,7 @@
         <v>400</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -1396,16 +1402,16 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -1445,13 +1451,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>27</v>
@@ -29349,14 +29355,14 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B10;B176">
       <formula1>"Analiz,Tasarım,Geliştirme,Test,Eğitim,Canlı Geçiş Hazırlık,Proje Destek"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B175">
-      <formula1>"Analiz,Tasarım,Geliştirme,Test,Canlı Geçiş Hazırlık,Proje Destek"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10;C175:C176">
       <formula1>"Backend,Frontend,DB,Tümü"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D10;D175:D176">
       <formula1>"Mevcut WEB sitesi,Admin paneli,Ek modüller,Tümü"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B175">
+      <formula1>"Analiz,Tasarım,Geliştirme,Test,Canlı Geçiş Hazırlık,Proje Destek"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29445,16 +29451,16 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3">
         <v>2</v>
@@ -29478,16 +29484,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -29511,16 +29517,16 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
@@ -29544,16 +29550,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
@@ -29577,16 +29583,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="3">
         <v>2</v>
@@ -29610,16 +29616,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
@@ -29649,10 +29655,10 @@
         <v>31</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="3">
         <v>3</v>
@@ -29682,10 +29688,10 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G9" s="3">
         <v>3</v>
@@ -29709,16 +29715,16 @@
         <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -29742,16 +29748,16 @@
         <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
@@ -29775,16 +29781,16 @@
         <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -29808,16 +29814,16 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G13" s="3">
         <v>2</v>
@@ -29841,16 +29847,16 @@
         <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
@@ -29874,16 +29880,16 @@
         <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -29907,16 +29913,16 @@
         <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
@@ -29940,16 +29946,16 @@
         <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -29973,16 +29979,16 @@
         <v>28</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
@@ -30006,16 +30012,16 @@
         <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
@@ -30039,16 +30045,16 @@
         <v>28</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G20" s="3">
         <v>3</v>
@@ -30072,16 +30078,16 @@
         <v>28</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G21" s="3">
         <v>2</v>
@@ -30105,16 +30111,16 @@
         <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G22" s="3">
         <v>2</v>
@@ -30138,16 +30144,16 @@
         <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G23" s="3">
         <v>2</v>
@@ -30171,16 +30177,16 @@
         <v>28</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G24" s="3">
         <v>2</v>
@@ -30204,16 +30210,16 @@
         <v>28</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G25" s="3">
         <v>2</v>
@@ -30237,16 +30243,16 @@
         <v>28</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G26" s="3">
         <v>2</v>
@@ -30270,16 +30276,16 @@
         <v>28</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G27" s="3">
         <v>2</v>
@@ -30303,16 +30309,16 @@
         <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G28" s="3">
         <v>2</v>
@@ -30336,16 +30342,16 @@
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G29" s="3">
         <v>2</v>
@@ -30369,16 +30375,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G30" s="3">
         <v>2</v>
@@ -30402,16 +30408,16 @@
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G31" s="3">
         <v>2</v>
@@ -30435,16 +30441,16 @@
         <v>28</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G32" s="3">
         <v>2</v>
@@ -30468,16 +30474,16 @@
         <v>28</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G33" s="3">
         <v>2</v>
@@ -30501,16 +30507,16 @@
         <v>28</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G34" s="3">
         <v>3</v>
@@ -30534,16 +30540,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G35" s="3">
         <v>2</v>
@@ -30567,16 +30573,16 @@
         <v>28</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G36" s="3">
         <v>2</v>
@@ -30597,7 +30603,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>31</v>
@@ -30606,10 +30612,10 @@
         <v>31</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G37" s="3">
         <v>3</v>
